--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238EE960-16B7-4CCC-9088-95E439F4BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF100CC-0F3C-4B76-A74F-DA2A17BF6A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,13 +491,13 @@
     <t>pacr_clinic_date</t>
   </si>
   <si>
-    <t>EonE</t>
-  </si>
-  <si>
-    <t>hosp0524Id042</t>
-  </si>
-  <si>
-    <t>28/09/2023</t>
+    <t>28/09/1994</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>href05Di001</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
   <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>71</v>
@@ -1107,7 +1107,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>55</v>
